--- a/excel/test2.xlsx
+++ b/excel/test2.xlsx
@@ -434,7 +434,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44720.63066472645</v>
+        <v>44720.64655419996</v>
       </c>
     </row>
   </sheetData>

--- a/excel/test2.xlsx
+++ b/excel/test2.xlsx
@@ -434,7 +434,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44720.64655419996</v>
+        <v>44720.65702543496</v>
       </c>
     </row>
   </sheetData>
